--- a/biology/Botanique/Prunus_maritima/Prunus_maritima.xlsx
+++ b/biology/Botanique/Prunus_maritima/Prunus_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus maritima est une espèce de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste.
 </t>
@@ -542,7 +556,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus maritima donne un fruit nommé prune des grèves en français canadien, beach plum « prune de la plage » en anglais américain, zeepruim « prune de mer » en néerlandais.
 </t>
@@ -573,7 +589,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve la prune des grèves sur la côte atlantique de l'Amérique du Nord, depuis le Nouveau-Brunswick jusqu'en Virginie. Elle croît dans les lieux pauvres tels que les marais salants ou les dunes à proximité des plages.
 Une centaine sont en culture par Gaardenier à Mortsel-Antwerpen (Anvers), Vlaanderen (La Flandre).
@@ -605,7 +623,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fruit peut être consommé et particulièrement sous forme de gelée que l'on sert avec le canard ou le gibier.
 </t>
